--- a/ccssgg.xlsx
+++ b/ccssgg.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,7 +52,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比率</t>
+    <t>2022年里约热内卢锦标赛炙热沙城 II 纪念包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比率/%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差值/￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花 | karrigan（全息，冠军） | 2022年安特卫普锦标赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花 | 急了（全息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年安特卫普锦标赛竞争组印花胶囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√/×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花 | interz（金色） | 2022年安特卫普锦标赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花 | 中华美食·百发百粽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残酷的达里尔爵士（聒噪）| 专业人士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花 | dupreeh（全息）| 2022年里约热内卢锦标赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花 | MIBR（全息）| 2018年伦敦锦标赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印花 | 黄金网（闪亮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:GO布章包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUG | 璞玉 (崭新出厂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克拉斯沃特（三分熟） | 游击队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4A1 消音型 | 伊卡洛斯殒落 (崭新出厂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺刀（★） | 黑色层压板 (崭新出厂)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023/4/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023/4/27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,6 +148,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,12 +168,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -101,7 +214,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -382,60 +529,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="8"/>
+    <col min="2" max="2" width="46.4140625" customWidth="1"/>
     <col min="3" max="3" width="10.58203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.58203125" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.58203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="1"/>
+    <col min="9" max="9" width="15.58203125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="C2" s="2">
+        <v>45012</v>
+      </c>
+      <c r="D2" s="10">
+        <v>54.600999999999999</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45036</v>
+      </c>
+      <c r="G2" s="10">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="12">
+        <f>J2/D2</f>
+        <v>0.43037673302686758</v>
+      </c>
+      <c r="J2" s="14">
+        <f>G2-D2</f>
+        <v>23.498999999999995</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="14">
+        <f>J2*H2</f>
+        <v>234.98999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45012</v>
+      </c>
+      <c r="D3" s="10">
+        <v>27.9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="M3" s="14"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45012</v>
+      </c>
+      <c r="D4" s="10">
+        <v>30.45</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>45126</v>
+      <c r="M4" s="14"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45012</v>
+      </c>
+      <c r="D5" s="10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" ref="J3:J16" si="0">G5-D5</f>
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" ref="M3:M13" si="1">J5*H5</f>
+        <v>-139.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45013</v>
+      </c>
+      <c r="D6" s="10">
+        <v>110</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45015</v>
+      </c>
+      <c r="D7" s="10">
+        <v>10.048999999999999</v>
+      </c>
+      <c r="H7" s="1">
+        <v>52</v>
+      </c>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45015</v>
+      </c>
+      <c r="D8" s="10">
+        <v>161</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="10">
+        <v>282</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.75155000000000005</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45015</v>
+      </c>
+      <c r="D9" s="10">
+        <v>26</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45026</v>
+      </c>
+      <c r="D10" s="10">
+        <v>28.4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45028</v>
+      </c>
+      <c r="D11" s="10">
+        <v>23.6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45036</v>
+      </c>
+      <c r="G11" s="10">
+        <v>29.25</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="12">
+        <f>J11/D11</f>
+        <v>0.23940677966101687</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="0"/>
+        <v>5.6499999999999986</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="1"/>
+        <v>28.249999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45033</v>
+      </c>
+      <c r="D12" s="10">
+        <v>9.9</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="0"/>
+        <v>-9.9</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="1"/>
+        <v>-19.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45035</v>
+      </c>
+      <c r="D13" s="10">
+        <v>141.33000000000001</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="10">
+        <v>146.25833299999999</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12">
+        <f>J13/D13</f>
+        <v>3.4871103092053921E-2</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="0"/>
+        <v>4.9283329999999808</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="1"/>
+        <v>29.569997999999885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45035</v>
+      </c>
+      <c r="D14" s="10">
+        <v>120.515</v>
+      </c>
+      <c r="H14" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45036</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4799</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45036</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5555</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>